--- a/biology/Botanique/Saule_marsault/Saule_marsault.xlsx
+++ b/biology/Botanique/Saule_marsault/Saule_marsault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix caprea
 Le Saule marsault ou Saule des chèvres, Salix caprea, est une espèce d'arbres ou d'arbustes de la famille des Salicaceae.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom scientifique Salix caprea (morph. « saule des chèvres ») vient sans doute de la première illustration connue de l'espèce dans le livre de Hieronymus Bock où on voit la plante broutée par une chèvre. L'espèce a été historiquement aussi largement utilisée comme fourrage pour les chèvres[Note 1],[Note 2].
 Salix caprea est parfois appelé Marsaule ou Marseau.
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une  espèce pionnière à croissance rapide et à faible longévité (60 ans).
 C'est un arbrisseau, arbuste ou un petit arbre dioïque atteignant de 6 à 14 m, rarement 20 m (avec un tronc pouvant atteindre un mètre de diamètre) et rejetant facilement de la souche. Son houppier est en dôme et se répartit souvent sur plusieurs troncs. L'écorce du tronc est d'abord lisse et gris-vert puis, avec l'âge, devient gris clair et crevassée, avec souvent des fissures longitudinales et losangiques orange (fig. 2).
@@ -583,7 +599,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est commune (voire très commune) en Europe et en Afrique du Nord.
 </t>
@@ -614,7 +632,9 @@
           <t>Habitat et exigences</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme type biologique, il est classé parmi les micro et mésophanérophytes.
 C'est une espèce eurasiatique héliophile vivant jusqu'à 2 000 m d'altitude, mésophile à mésohygrophile, neutrocline pionnière à large amplitude. Le saule marsault est une espèce pionnière, souvent compagne des bouleaux, mais moins exclusivement liée aux sols humides que les autres espèces de saules.
@@ -646,7 +666,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Contrairement à presque tous les autres saules, les spécimens purs de Salix caprea ne sont pas faciles à bouturer. Si un saule qui ressemble à l'espèce prend facilement racine (enracinement traçant), il s'agit probablement d'un hybride avec une autre espèce de saule.
 </t>
@@ -677,7 +699,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce saule est réputé comme plante mellifère car ses potentiels nectarifères et pollinifères sont élevés (&gt; 100 kg/ha). Sa floraison précoce constitue par ailleurs un atout supplémentaire, car les besoins alimentaires des colonies d'abeilles sont importants à cette période de l'année (fig. 5). Il fournit un miel jaune d'or, irisé de vert, qui prend ensuite des teintes brun clair à beige. Il est de saveur légèrement boisée et florale. C'est un miel relativement rare, produit principalement dans l'Ouest de la France.
 Les feuilles sont utilisées comme ressource alimentaire par plusieurs espèces de lépidoptères, et sont aussi couramment consommées par différents mammifères.
@@ -721,9 +745,11 @@
           <t>Ravageurs</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Phytopte des galles des pousses de saules (un acarien minuscule) vit dans des galles-balais de sorcière où il se reproduit pendant l'été (Il n'est pas considéré comme responsable de la formation de ces galles)[1].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Phytopte des galles des pousses de saules (un acarien minuscule) vit dans des galles-balais de sorcière où il se reproduit pendant l'été (Il n'est pas considéré comme responsable de la formation de ces galles).
 La larve (fausse chenille) de Tenthrède des saules se nourrit des feuilles du saule des chèvres.
 </t>
         </is>
@@ -755,8 +781,13 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Calendrier républicain
-Dans le calendrier républicain, le Marsault était le nom attribué au 9e jour du mois de ventôse[2], en général les 27 février du calendrier grégorien.
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le calendrier républicain, le Marsault était le nom attribué au 9e jour du mois de ventôse, en général les 27 février du calendrier grégorien.
 </t>
         </is>
       </c>
@@ -785,7 +816,9 @@
           <t>Forme cultivée</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Une variété pleureuse a été greffée sur tige dans un but décoratif, à Kilmarnock, en Écosse pour la première fois, en 1853, par Thomas Lang, sur les rives de l'Ayr. La forme mâle a été privilégiée pour ses chatons plus attractifs.
 			Salix caprea Kilmarnock, greffé sur tige.
